--- a/vtiger-crm-framework-a13/src/test/resources/testScriptData.xlsx
+++ b/vtiger-crm-framework-a13/src/test/resources/testScriptData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A13" sheetId="1" r:id="rId1"/>
+    <sheet name="contact" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>student_name</t>
   </si>
@@ -52,6 +53,30 @@
   </si>
   <si>
     <t>35</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>patel</t>
+  </si>
+  <si>
+    <t>sharma</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>gupta</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>middleName</t>
   </si>
 </sst>
 </file>
@@ -396,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="234" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="234" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,4 +498,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="269" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>